--- a/Code/Results/Cases/Case_5_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_137/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.145211690949168</v>
+        <v>2.841834217421933</v>
       </c>
       <c r="C2">
-        <v>0.8235974857357746</v>
+        <v>0.2377829919085457</v>
       </c>
       <c r="D2">
-        <v>0.06567845830743124</v>
+        <v>0.1132707645347821</v>
       </c>
       <c r="E2">
-        <v>0.018965907700077</v>
+        <v>0.0490461204128616</v>
       </c>
       <c r="F2">
-        <v>2.764571881640762</v>
+        <v>2.421976638479862</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3734867061410938</v>
+        <v>0.2716327507868357</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.156053143665858</v>
+        <v>1.946590460329148</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.453778413106818</v>
+        <v>2.6830833957452</v>
       </c>
       <c r="C3">
-        <v>0.7082988367014593</v>
+        <v>0.2069324353719253</v>
       </c>
       <c r="D3">
-        <v>0.06501374429880258</v>
+        <v>0.113647159158262</v>
       </c>
       <c r="E3">
-        <v>0.01905636987730208</v>
+        <v>0.04924918981995363</v>
       </c>
       <c r="F3">
-        <v>2.473230172984486</v>
+        <v>2.364479096077233</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3265291396793799</v>
+        <v>0.2616684373782334</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.183336138579179</v>
+        <v>1.95822297313741</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.03882201524226</v>
+        <v>2.58746215276841</v>
       </c>
       <c r="C4">
-        <v>0.638790349871897</v>
+        <v>0.1880198126431765</v>
       </c>
       <c r="D4">
-        <v>0.06478974606749688</v>
+        <v>0.1139298444665897</v>
       </c>
       <c r="E4">
-        <v>0.01912973710260379</v>
+        <v>0.04938467912766198</v>
       </c>
       <c r="F4">
-        <v>2.301382800956631</v>
+        <v>2.330742348702174</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2984496815723645</v>
+        <v>0.2557277015415167</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.202312651220069</v>
+        <v>1.966024942044008</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.871801563718861</v>
+        <v>2.548957376177611</v>
       </c>
       <c r="C5">
-        <v>0.6107330921902872</v>
+        <v>0.1803193773976091</v>
       </c>
       <c r="D5">
-        <v>0.06474052147716947</v>
+        <v>0.1140579358833165</v>
       </c>
       <c r="E5">
-        <v>0.01916392628573105</v>
+        <v>0.04944261196031796</v>
       </c>
       <c r="F5">
-        <v>2.232918447246831</v>
+        <v>2.317385159484473</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2871723003653557</v>
+        <v>0.2533511093697314</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.210565139757861</v>
+        <v>1.969369320994161</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.844184330890982</v>
+        <v>2.542591450739849</v>
       </c>
       <c r="C6">
-        <v>0.6060888877604782</v>
+        <v>0.1790411002433245</v>
       </c>
       <c r="D6">
-        <v>0.06473477257048188</v>
+        <v>0.1140799820172802</v>
       </c>
       <c r="E6">
-        <v>0.01916985738977361</v>
+        <v>0.04945239602791851</v>
       </c>
       <c r="F6">
-        <v>2.221638907721214</v>
+        <v>2.315190718983203</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2853090215045739</v>
+        <v>0.252959145343425</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.211965738326001</v>
+        <v>1.969934594587052</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.036561522310024</v>
+        <v>2.586941000067554</v>
       </c>
       <c r="C7">
-        <v>0.6384109434927154</v>
+        <v>0.1879159362466964</v>
       </c>
       <c r="D7">
-        <v>0.06478891719305579</v>
+        <v>0.1139315198388005</v>
       </c>
       <c r="E7">
-        <v>0.01913018105053155</v>
+        <v>0.04938544941335099</v>
       </c>
       <c r="F7">
-        <v>2.300453386435777</v>
+        <v>2.330560630820401</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2982969519019889</v>
+        <v>0.2556954709874617</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.20242189397176</v>
+        <v>1.966069378471573</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.904604255395896</v>
+        <v>2.786709895398246</v>
       </c>
       <c r="C8">
-        <v>0.7835406075107869</v>
+        <v>0.2271390126917083</v>
       </c>
       <c r="D8">
-        <v>0.0654083361396971</v>
+        <v>0.113389795120149</v>
       </c>
       <c r="E8">
-        <v>0.01899327854688737</v>
+        <v>0.04911389825117363</v>
       </c>
       <c r="F8">
-        <v>2.662526485057782</v>
+        <v>2.40182428752982</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3571242511882815</v>
+        <v>0.2681600511346147</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.164973173371536</v>
+        <v>1.950463952926356</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.700016629034565</v>
+        <v>3.193367121953315</v>
       </c>
       <c r="C9">
-        <v>1.081187128226162</v>
+        <v>0.3043344642938735</v>
       </c>
       <c r="D9">
-        <v>0.06830456857178291</v>
+        <v>0.1127401793202409</v>
       </c>
       <c r="E9">
-        <v>0.01887608719352318</v>
+        <v>0.04866697884752202</v>
       </c>
       <c r="F9">
-        <v>3.438908565633284</v>
+        <v>2.554161799494267</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4796905311432624</v>
+        <v>0.2940259638491085</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.11124020642103</v>
+        <v>1.925133008421852</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.103652709569417</v>
+        <v>3.501561083297929</v>
       </c>
       <c r="C10">
-        <v>1.312461380258924</v>
+        <v>0.3612856057851559</v>
       </c>
       <c r="D10">
-        <v>0.0718198075962917</v>
+        <v>0.1125194272343464</v>
       </c>
       <c r="E10">
-        <v>0.01889834690439329</v>
+        <v>0.04839063558225565</v>
       </c>
       <c r="F10">
-        <v>4.066801179259897</v>
+        <v>2.673992092429245</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5761283599722447</v>
+        <v>0.3139209947143939</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.087100889316787</v>
+        <v>1.909788611674941</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.768099460645658</v>
+        <v>3.643888120940915</v>
       </c>
       <c r="C11">
-        <v>1.421678091311264</v>
+        <v>0.3872600052351913</v>
       </c>
       <c r="D11">
-        <v>0.07382099040191292</v>
+        <v>0.1124757954355928</v>
       </c>
       <c r="E11">
-        <v>0.01893647008450738</v>
+        <v>0.04827617917387617</v>
       </c>
       <c r="F11">
-        <v>4.369560656393702</v>
+        <v>2.730275165509028</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6219283676976062</v>
+        <v>0.3231707290507444</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.080359995503159</v>
+        <v>1.903528881311615</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.024199150481763</v>
+        <v>3.698095256445754</v>
       </c>
       <c r="C12">
-        <v>1.463741412703143</v>
+        <v>0.3971065752492109</v>
       </c>
       <c r="D12">
-        <v>0.07464704463352234</v>
+        <v>0.1124675299822329</v>
       </c>
       <c r="E12">
-        <v>0.01895539333644169</v>
+        <v>0.04823445324865983</v>
       </c>
       <c r="F12">
-        <v>4.487140740472341</v>
+        <v>2.751846892124007</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6396037754758481</v>
+        <v>0.3267024377778966</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.078510267714435</v>
+        <v>1.901263075431373</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.968830315009427</v>
+        <v>3.686406868919789</v>
       </c>
       <c r="C13">
-        <v>1.454648645356883</v>
+        <v>0.3949854515708466</v>
       </c>
       <c r="D13">
-        <v>0.07446591547570591</v>
+        <v>0.1124689414022484</v>
       </c>
       <c r="E13">
-        <v>0.0189511100216242</v>
+        <v>0.04824336782185501</v>
       </c>
       <c r="F13">
-        <v>4.4616790056848</v>
+        <v>2.747189474832965</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6357813265482406</v>
+        <v>0.3259405238873541</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.078875709834776</v>
+        <v>1.901746388098829</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.789074147725387</v>
+        <v>3.648341513346281</v>
       </c>
       <c r="C14">
-        <v>1.425123707315663</v>
+        <v>0.3880698697329876</v>
       </c>
       <c r="D14">
-        <v>0.07388751551618356</v>
+        <v>0.1124749494249926</v>
       </c>
       <c r="E14">
-        <v>0.01893793403155719</v>
+        <v>0.04827271397645738</v>
       </c>
       <c r="F14">
-        <v>4.379172300551005</v>
+        <v>2.732044680831649</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6233755355142279</v>
+        <v>0.3234607008326833</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.080193135444588</v>
+        <v>1.903340369560411</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.679577656982815</v>
+        <v>3.625066031417532</v>
       </c>
       <c r="C15">
-        <v>1.407134911583341</v>
+        <v>0.3838352899972506</v>
       </c>
       <c r="D15">
-        <v>0.07354246113293073</v>
+        <v>0.1124797075330548</v>
       </c>
       <c r="E15">
-        <v>0.01893046286010414</v>
+        <v>0.04829089976662093</v>
       </c>
       <c r="F15">
-        <v>4.329031686490083</v>
+        <v>2.722801841294597</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6158216367257126</v>
+        <v>0.3219455297760447</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.081094689792579</v>
+        <v>1.90433038381741</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.060813229315045</v>
+        <v>3.492302920214797</v>
       </c>
       <c r="C16">
-        <v>1.305414973874008</v>
+        <v>0.3595895507752971</v>
       </c>
       <c r="D16">
-        <v>0.07169796353538516</v>
+        <v>0.1125234291382924</v>
       </c>
       <c r="E16">
-        <v>0.01889645629170555</v>
+        <v>0.04839834185325831</v>
       </c>
       <c r="F16">
-        <v>4.047398008383084</v>
+        <v>2.670349833742449</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5731784977144656</v>
+        <v>0.3133205458589572</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.087634336452084</v>
+        <v>1.910212284256005</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.688361955894948</v>
+        <v>3.41140559272884</v>
       </c>
       <c r="C17">
-        <v>1.2441245042491</v>
+        <v>0.3447334429769739</v>
       </c>
       <c r="D17">
-        <v>0.07067622658030359</v>
+        <v>0.1125648600622284</v>
       </c>
       <c r="E17">
-        <v>0.01888306679619323</v>
+        <v>0.04846713492843602</v>
       </c>
       <c r="F17">
-        <v>3.879320253774495</v>
+        <v>2.638628664890859</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5475484848120828</v>
+        <v>0.3080807210010477</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.092793455172952</v>
+        <v>1.914005893466907</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.476525568859358</v>
+        <v>3.365075588673619</v>
       </c>
       <c r="C18">
-        <v>1.209240249045649</v>
+        <v>0.3361948525409844</v>
       </c>
       <c r="D18">
-        <v>0.07012566796101538</v>
+        <v>0.1125940297990908</v>
       </c>
       <c r="E18">
-        <v>0.01887796861359448</v>
+        <v>0.04850776223513265</v>
       </c>
       <c r="F18">
-        <v>3.784226146278883</v>
+        <v>2.620550015391245</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5329846817337653</v>
+        <v>0.3050856571226888</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.096153497374743</v>
+        <v>1.916255633949376</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.405190443456831</v>
+        <v>3.349423246077038</v>
       </c>
       <c r="C19">
-        <v>1.197488753226764</v>
+        <v>0.3333048761396071</v>
       </c>
       <c r="D19">
-        <v>0.06994534676243802</v>
+        <v>0.1126048205428773</v>
       </c>
       <c r="E19">
-        <v>0.0188766768643891</v>
+        <v>0.04852169995038835</v>
       </c>
       <c r="F19">
-        <v>3.752287262037953</v>
+        <v>2.614457382392146</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5280826736719888</v>
+        <v>0.3040747884484176</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.097356012670573</v>
+        <v>1.917028964194671</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.727757820548049</v>
+        <v>3.419996516626099</v>
       </c>
       <c r="C20">
-        <v>1.250609990788689</v>
+        <v>0.3463142470774301</v>
       </c>
       <c r="D20">
-        <v>0.07078108140203199</v>
+        <v>0.1125598963739378</v>
       </c>
       <c r="E20">
-        <v>0.01888421965360987</v>
+        <v>0.04845970216437312</v>
       </c>
       <c r="F20">
-        <v>3.897045781253098</v>
+        <v>2.64198817527739</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5502580666126846</v>
+        <v>0.3086365666803061</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.092202997517717</v>
+        <v>1.913595037459899</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.84174434955969</v>
+        <v>3.659513751075565</v>
       </c>
       <c r="C21">
-        <v>1.433775609648364</v>
+        <v>0.3901008473268348</v>
       </c>
       <c r="D21">
-        <v>0.07405546002996033</v>
+        <v>0.1124729598998826</v>
       </c>
       <c r="E21">
-        <v>0.01894167825195225</v>
+        <v>0.0482640504507712</v>
       </c>
       <c r="F21">
-        <v>4.403322800877106</v>
+        <v>2.736486026520964</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6270099267238436</v>
+        <v>0.324188294030634</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.079786271507103</v>
+        <v>1.902869331136145</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.596416557277507</v>
+        <v>3.817867099816567</v>
       </c>
       <c r="C22">
-        <v>1.557674210025425</v>
+        <v>0.4187803459709585</v>
       </c>
       <c r="D22">
-        <v>0.07659968383487126</v>
+        <v>0.1124643131138967</v>
       </c>
       <c r="E22">
-        <v>0.01900566600186337</v>
+        <v>0.04814560052720473</v>
       </c>
       <c r="F22">
-        <v>4.751574292179583</v>
+        <v>2.799754657441071</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6791391468005514</v>
+        <v>0.3345216605272299</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.075824648175711</v>
+        <v>1.896469736218322</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.190909943018937</v>
+        <v>3.733183194872481</v>
       </c>
       <c r="C23">
-        <v>1.491114792182429</v>
+        <v>0.4034675144939115</v>
       </c>
       <c r="D23">
-        <v>0.07520079089502474</v>
+        <v>0.1124644899707832</v>
       </c>
       <c r="E23">
-        <v>0.01896891905116238</v>
+        <v>0.0482079582073851</v>
       </c>
       <c r="F23">
-        <v>4.563938638111154</v>
+        <v>2.765847672990787</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6511161704476223</v>
+        <v>0.3289909245547022</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.077523550403157</v>
+        <v>1.899829142756928</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.709939870299195</v>
+        <v>3.416112002924649</v>
       </c>
       <c r="C24">
-        <v>1.247676813900569</v>
+        <v>0.3455995581924753</v>
       </c>
       <c r="D24">
-        <v>0.0707335625138299</v>
+        <v>0.1125621237988383</v>
       </c>
       <c r="E24">
-        <v>0.01888369038278714</v>
+        <v>0.04846305916149518</v>
       </c>
       <c r="F24">
-        <v>3.889027320142389</v>
+        <v>2.640468847931771</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5490325353012366</v>
+        <v>0.3083852147376547</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.092468723047119</v>
+        <v>1.913780571414492</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.201713395581521</v>
+        <v>3.081725240779633</v>
       </c>
       <c r="C25">
-        <v>0.9988319667846781</v>
+        <v>0.2834144603457389</v>
       </c>
       <c r="D25">
-        <v>0.0673071482511034</v>
+        <v>0.1128712313765021</v>
       </c>
       <c r="E25">
-        <v>0.01889008235445022</v>
+        <v>0.04877873720236714</v>
       </c>
       <c r="F25">
-        <v>3.220164286775088</v>
+        <v>2.511578800826129</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4455729338474299</v>
+        <v>0.2868737749715677</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.12335373640623</v>
+        <v>1.931415975659036</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_137/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.841834217421933</v>
+        <v>5.145211690949225</v>
       </c>
       <c r="C2">
-        <v>0.2377829919085457</v>
+        <v>0.8235974857359736</v>
       </c>
       <c r="D2">
-        <v>0.1132707645347821</v>
+        <v>0.06567845830742414</v>
       </c>
       <c r="E2">
-        <v>0.0490461204128616</v>
+        <v>0.01896590770001261</v>
       </c>
       <c r="F2">
-        <v>2.421976638479862</v>
+        <v>2.764571881640734</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2716327507868357</v>
+        <v>0.3734867061412217</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.946590460329148</v>
+        <v>1.156053143665872</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.6830833957452</v>
+        <v>4.453778413106761</v>
       </c>
       <c r="C3">
-        <v>0.2069324353719253</v>
+        <v>0.7082988367019141</v>
       </c>
       <c r="D3">
-        <v>0.113647159158262</v>
+        <v>0.065013744298696</v>
       </c>
       <c r="E3">
-        <v>0.04924918981995363</v>
+        <v>0.01905636987727632</v>
       </c>
       <c r="F3">
-        <v>2.364479096077233</v>
+        <v>2.473230172984444</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2616684373782334</v>
+        <v>0.3265291396794083</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.95822297313741</v>
+        <v>1.183336138579122</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.58746215276841</v>
+        <v>4.038822015242204</v>
       </c>
       <c r="C4">
-        <v>0.1880198126431765</v>
+        <v>0.6387903498714138</v>
       </c>
       <c r="D4">
-        <v>0.1139298444665897</v>
+        <v>0.06478974606716292</v>
       </c>
       <c r="E4">
-        <v>0.04938467912766198</v>
+        <v>0.01912973710260157</v>
       </c>
       <c r="F4">
-        <v>2.330742348702174</v>
+        <v>2.301382800956631</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2557277015415167</v>
+        <v>0.2984496815723503</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.966024942044008</v>
+        <v>1.202312651220055</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.548957376177611</v>
+        <v>3.871801563718748</v>
       </c>
       <c r="C5">
-        <v>0.1803193773976091</v>
+        <v>0.610733092190344</v>
       </c>
       <c r="D5">
-        <v>0.1140579358833165</v>
+        <v>0.0647405214770771</v>
       </c>
       <c r="E5">
-        <v>0.04944261196031796</v>
+        <v>0.0191639262857124</v>
       </c>
       <c r="F5">
-        <v>2.317385159484473</v>
+        <v>2.232918447246846</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2533511093697314</v>
+        <v>0.2871723003653557</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.969369320994161</v>
+        <v>1.21056513975779</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.542591450739849</v>
+        <v>3.844184330891096</v>
       </c>
       <c r="C6">
-        <v>0.1790411002433245</v>
+        <v>0.6060888877604214</v>
       </c>
       <c r="D6">
-        <v>0.1140799820172802</v>
+        <v>0.06473477257047477</v>
       </c>
       <c r="E6">
-        <v>0.04945239602791851</v>
+        <v>0.01916985738975496</v>
       </c>
       <c r="F6">
-        <v>2.315190718983203</v>
+        <v>2.221638907721228</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.252959145343425</v>
+        <v>0.2853090215046024</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.969934594587052</v>
+        <v>1.211965738325915</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.586941000067554</v>
+        <v>4.03656152230991</v>
       </c>
       <c r="C7">
-        <v>0.1879159362466964</v>
+        <v>0.6384109434927154</v>
       </c>
       <c r="D7">
-        <v>0.1139315198388005</v>
+        <v>0.06478891719316238</v>
       </c>
       <c r="E7">
-        <v>0.04938544941335099</v>
+        <v>0.01913018105049735</v>
       </c>
       <c r="F7">
-        <v>2.330560630820401</v>
+        <v>2.300453386435777</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2556954709874617</v>
+        <v>0.2982969519019605</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.966069378471573</v>
+        <v>1.202421893971817</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.786709895398246</v>
+        <v>4.904604255395839</v>
       </c>
       <c r="C8">
-        <v>0.2271390126917083</v>
+        <v>0.7835406075109859</v>
       </c>
       <c r="D8">
-        <v>0.113389795120149</v>
+        <v>0.06540833613971131</v>
       </c>
       <c r="E8">
-        <v>0.04911389825117363</v>
+        <v>0.01899327854692467</v>
       </c>
       <c r="F8">
-        <v>2.40182428752982</v>
+        <v>2.662526485057811</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2681600511346147</v>
+        <v>0.3571242511882389</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.950463952926356</v>
+        <v>1.164973173371592</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.193367121953315</v>
+        <v>6.700016629034508</v>
       </c>
       <c r="C9">
-        <v>0.3043344642938735</v>
+        <v>1.081187128226674</v>
       </c>
       <c r="D9">
-        <v>0.1127401793202409</v>
+        <v>0.06830456857192502</v>
       </c>
       <c r="E9">
-        <v>0.04866697884752202</v>
+        <v>0.01887608719362799</v>
       </c>
       <c r="F9">
-        <v>2.554161799494267</v>
+        <v>3.438908565633284</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2940259638491085</v>
+        <v>0.4796905311433193</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.925133008421852</v>
+        <v>1.111240206421073</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.501561083297929</v>
+        <v>8.103652709569587</v>
       </c>
       <c r="C10">
-        <v>0.3612856057851559</v>
+        <v>1.312461380258867</v>
       </c>
       <c r="D10">
-        <v>0.1125194272343464</v>
+        <v>0.07181980759613538</v>
       </c>
       <c r="E10">
-        <v>0.04839063558225565</v>
+        <v>0.01889834690438885</v>
       </c>
       <c r="F10">
-        <v>2.673992092429245</v>
+        <v>4.066801179259983</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3139209947143939</v>
+        <v>0.576128359972131</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.909788611674941</v>
+        <v>1.087100889316801</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.643888120940915</v>
+        <v>8.768099460645772</v>
       </c>
       <c r="C11">
-        <v>0.3872600052351913</v>
+        <v>1.421678091310753</v>
       </c>
       <c r="D11">
-        <v>0.1124757954355928</v>
+        <v>0.07382099040226109</v>
       </c>
       <c r="E11">
-        <v>0.04827617917387617</v>
+        <v>0.01893647008452692</v>
       </c>
       <c r="F11">
-        <v>2.730275165509028</v>
+        <v>4.369560656393702</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3231707290507444</v>
+        <v>0.621928367697663</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.903528881311615</v>
+        <v>1.080359995503144</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.698095256445754</v>
+        <v>9.024199150481877</v>
       </c>
       <c r="C12">
-        <v>0.3971065752492109</v>
+        <v>1.463741412703826</v>
       </c>
       <c r="D12">
-        <v>0.1124675299822329</v>
+        <v>0.07464704463328786</v>
       </c>
       <c r="E12">
-        <v>0.04823445324865983</v>
+        <v>0.01895539333640084</v>
       </c>
       <c r="F12">
-        <v>2.751846892124007</v>
+        <v>4.487140740472341</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3267024377778966</v>
+        <v>0.6396037754760329</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.901263075431373</v>
+        <v>1.078510267714449</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.686406868919789</v>
+        <v>8.968830315009427</v>
       </c>
       <c r="C13">
-        <v>0.3949854515708466</v>
+        <v>1.454648645357508</v>
       </c>
       <c r="D13">
-        <v>0.1124689414022484</v>
+        <v>0.07446591547533643</v>
       </c>
       <c r="E13">
-        <v>0.04824336782185501</v>
+        <v>0.01895111002162331</v>
       </c>
       <c r="F13">
-        <v>2.747189474832965</v>
+        <v>4.461679005684772</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3259405238873541</v>
+        <v>0.6357813265483685</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.901746388098829</v>
+        <v>1.078875709834833</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.648341513346281</v>
+        <v>8.789074147725501</v>
       </c>
       <c r="C14">
-        <v>0.3880698697329876</v>
+        <v>1.42512370731572</v>
       </c>
       <c r="D14">
-        <v>0.1124749494249926</v>
+        <v>0.07388751551620487</v>
       </c>
       <c r="E14">
-        <v>0.04827271397645738</v>
+        <v>0.01893793403148525</v>
       </c>
       <c r="F14">
-        <v>2.732044680831649</v>
+        <v>4.379172300550977</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3234607008326833</v>
+        <v>0.6233755355142705</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.903340369560411</v>
+        <v>1.080193135444603</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.625066031417532</v>
+        <v>8.679577656982929</v>
       </c>
       <c r="C15">
-        <v>0.3838352899972506</v>
+        <v>1.407134911583853</v>
       </c>
       <c r="D15">
-        <v>0.1124797075330548</v>
+        <v>0.07354246113273888</v>
       </c>
       <c r="E15">
-        <v>0.04829089976662093</v>
+        <v>0.01893046286014766</v>
       </c>
       <c r="F15">
-        <v>2.722801841294597</v>
+        <v>4.329031686490055</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3219455297760447</v>
+        <v>0.6158216367256557</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.90433038381741</v>
+        <v>1.081094689792636</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.492302920214797</v>
+        <v>8.060813229314874</v>
       </c>
       <c r="C16">
-        <v>0.3595895507752971</v>
+        <v>1.305414973873951</v>
       </c>
       <c r="D16">
-        <v>0.1125234291382924</v>
+        <v>0.0716979635358399</v>
       </c>
       <c r="E16">
-        <v>0.04839834185325831</v>
+        <v>0.01889645629174908</v>
       </c>
       <c r="F16">
-        <v>2.670349833742449</v>
+        <v>4.047398008383084</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3133205458589572</v>
+        <v>0.5731784977143803</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.910212284256005</v>
+        <v>1.08763433645214</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.41140559272884</v>
+        <v>7.688361955894891</v>
       </c>
       <c r="C17">
-        <v>0.3447334429769739</v>
+        <v>1.244124504249385</v>
       </c>
       <c r="D17">
-        <v>0.1125648600622284</v>
+        <v>0.07067622658090045</v>
       </c>
       <c r="E17">
-        <v>0.04846713492843602</v>
+        <v>0.01888306679619944</v>
       </c>
       <c r="F17">
-        <v>2.638628664890859</v>
+        <v>3.879320253774466</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3080807210010477</v>
+        <v>0.5475484848121255</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.914005893466907</v>
+        <v>1.092793455172952</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.365075588673619</v>
+        <v>7.476525568859415</v>
       </c>
       <c r="C18">
-        <v>0.3361948525409844</v>
+        <v>1.209240249045365</v>
       </c>
       <c r="D18">
-        <v>0.1125940297990908</v>
+        <v>0.07012566796106512</v>
       </c>
       <c r="E18">
-        <v>0.04850776223513265</v>
+        <v>0.0188779686136451</v>
       </c>
       <c r="F18">
-        <v>2.620550015391245</v>
+        <v>3.784226146278911</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3050856571226888</v>
+        <v>0.5329846817337085</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.916255633949376</v>
+        <v>1.096153497374743</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.349423246077038</v>
+        <v>7.405190443456888</v>
       </c>
       <c r="C19">
-        <v>0.3333048761396071</v>
+        <v>1.197488753226366</v>
       </c>
       <c r="D19">
-        <v>0.1126048205428773</v>
+        <v>0.06994534676221775</v>
       </c>
       <c r="E19">
-        <v>0.04852169995038835</v>
+        <v>0.01887667686432071</v>
       </c>
       <c r="F19">
-        <v>2.614457382392146</v>
+        <v>3.752287262037981</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3040747884484176</v>
+        <v>0.5280826736719177</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.917028964194671</v>
+        <v>1.097356012670616</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.419996516626099</v>
+        <v>7.72775782054822</v>
       </c>
       <c r="C20">
-        <v>0.3463142470774301</v>
+        <v>1.25060999078886</v>
       </c>
       <c r="D20">
-        <v>0.1125598963739378</v>
+        <v>0.0707810814020462</v>
       </c>
       <c r="E20">
-        <v>0.04845970216437312</v>
+        <v>0.01888421965364007</v>
       </c>
       <c r="F20">
-        <v>2.64198817527739</v>
+        <v>3.897045781253041</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3086365666803061</v>
+        <v>0.5502580666129973</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.913595037459899</v>
+        <v>1.092202997517774</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.659513751075565</v>
+        <v>8.84174434955969</v>
       </c>
       <c r="C21">
-        <v>0.3901008473268348</v>
+        <v>1.433775609648876</v>
       </c>
       <c r="D21">
-        <v>0.1124729598998826</v>
+        <v>0.07405546002996743</v>
       </c>
       <c r="E21">
-        <v>0.0482640504507712</v>
+        <v>0.01894167825198956</v>
       </c>
       <c r="F21">
-        <v>2.736486026520964</v>
+        <v>4.403322800877106</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.324188294030634</v>
+        <v>0.6270099267236731</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.902869331136145</v>
+        <v>1.07978627150716</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.817867099816567</v>
+        <v>9.596416557277621</v>
       </c>
       <c r="C22">
-        <v>0.4187803459709585</v>
+        <v>1.557674210025482</v>
       </c>
       <c r="D22">
-        <v>0.1124643131138967</v>
+        <v>0.0765996838346652</v>
       </c>
       <c r="E22">
-        <v>0.04814560052720473</v>
+        <v>0.01900566600183407</v>
       </c>
       <c r="F22">
-        <v>2.799754657441071</v>
+        <v>4.751574292179555</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3345216605272299</v>
+        <v>0.6791391468003951</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.896469736218322</v>
+        <v>1.075824648175754</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.733183194872481</v>
+        <v>9.190909943019165</v>
       </c>
       <c r="C23">
-        <v>0.4034675144939115</v>
+        <v>1.491114792182145</v>
       </c>
       <c r="D23">
-        <v>0.1124644899707832</v>
+        <v>0.07520079089515974</v>
       </c>
       <c r="E23">
-        <v>0.0482079582073851</v>
+        <v>0.01896891905115883</v>
       </c>
       <c r="F23">
-        <v>2.765847672990787</v>
+        <v>4.563938638111182</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3289909245547022</v>
+        <v>0.6511161704474375</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.899829142756928</v>
+        <v>1.077523550403185</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.416112002924649</v>
+        <v>7.709939870299195</v>
       </c>
       <c r="C24">
-        <v>0.3455995581924753</v>
+        <v>1.247676813900569</v>
       </c>
       <c r="D24">
-        <v>0.1125621237988383</v>
+        <v>0.07073356251382279</v>
       </c>
       <c r="E24">
-        <v>0.04846305916149518</v>
+        <v>0.01888369038278714</v>
       </c>
       <c r="F24">
-        <v>2.640468847931771</v>
+        <v>3.889027320142389</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3083852147376547</v>
+        <v>0.5490325353012224</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.913780571414492</v>
+        <v>1.092468723047176</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081725240779633</v>
+        <v>6.201713395581749</v>
       </c>
       <c r="C25">
-        <v>0.2834144603457389</v>
+        <v>0.9988319667847065</v>
       </c>
       <c r="D25">
-        <v>0.1128712313765021</v>
+        <v>0.06730714825122419</v>
       </c>
       <c r="E25">
-        <v>0.04877873720236714</v>
+        <v>0.01889008235448042</v>
       </c>
       <c r="F25">
-        <v>2.511578800826129</v>
+        <v>3.220164286775145</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2868737749715677</v>
+        <v>0.4455729338474725</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.931415975659036</v>
+        <v>1.123353736406202</v>
       </c>
       <c r="O25">
         <v>0</v>
